--- a/backend/Amet_data_update.xlsx
+++ b/backend/Amet_data_update.xlsx
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>3333333333</v>
+        <v>1689856558655</v>
       </c>
     </row>
     <row r="3">
@@ -591,13 +591,9 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>19-7-23</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -629,7 +625,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./images/paintings_available/amet-bread_circus.png</t>
+          <t>./images/paintings_available/amet-bread-circus.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -648,7 +644,9 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>3333333333</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -674,7 +672,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./images/paintings_available/bread-circus.jpg</t>
+          <t>./images/paintings_available/amet-idolatry.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -693,7 +691,9 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>3333333333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -735,12 +735,16 @@
       <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>3333333333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,12 +786,16 @@
       <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>3333333333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1490,7 +1498,9 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>3333333333</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1535,7 +1545,9 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>3333333333</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1728,7 +1740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1776,78 +1788,6 @@
         <is>
           <t>registerNum</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Shit shit shit</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Rica</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>kuva5008@gmail.com</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>31626117235</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Cuba</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Checking</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3333333333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>checking</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rica</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>kuva5008@gmail.com</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>31626117235</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cuba</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Checking</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3333333333</v>
       </c>
     </row>
   </sheetData>

--- a/backend/Amet_data_update.xlsx
+++ b/backend/Amet_data_update.xlsx
@@ -540,19 +540,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>20-7-23</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1689856558655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,14 +585,18 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>21-7-23</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3333333333</v>
+        <v>1689912425716</v>
       </c>
     </row>
     <row r="4">
@@ -644,9 +642,7 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="n">
-        <v>3333333333</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -691,9 +687,7 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="n">
-        <v>3333333333</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1740,7 +1734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,6 +1782,150 @@
         <is>
           <t>registerNum</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shit shit shit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Shit shit shit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Shit shit shit</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Infante</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>626117235</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Checking the shop</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1689912425716</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1907,6 +2045,42 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Burning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>acrylic / canvas</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70 x 50 cm</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>./images/paintings_available/amet-burning.png</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21-7-23</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1689912425716</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/Amet_data_update.xlsx
+++ b/backend/Amet_data_update.xlsx
@@ -1,3 +1,143 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="paintingsData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="customers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="fans" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="paintingsReserved" sheetId="4" state="visible" r:id="rId4"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -282,13 +422,13 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -304,35 +444,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>last_name</t>
+          <t>tech</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>size</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>price</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>img</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>feedback</t>
+          <t>created</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>soldDate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reserved</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>reservedDate</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cart</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>registerNum</t>
         </is>
@@ -344,35 +509,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shit shit shit</t>
+          <t>Gossip</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rica</t>
+          <t>acrylic / canvas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kuva5008@gmail.com</t>
+          <t>50 x 40 cm</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31626117235</v>
+        <v>500</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>./images/paintings_available/amet-gossip.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Checking</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3333333333</v>
-      </c>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -380,35 +554,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shit shit shit</t>
+          <t>Burning</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rica</t>
+          <t>acrylic / canvas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>kuva5008@gmail.com</t>
+          <t>70 x 50 cm</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31626117235</v>
+        <v>600</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>./images/paintings_available/amet-burning.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Checking</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3333333333</v>
-      </c>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -416,35 +599,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shit shit shit</t>
+          <t>Idolatry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rica</t>
+          <t>acrylic / canvas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>kuva5008@gmail.com</t>
+          <t>100 x 70 cm</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31626117235</v>
+        <v>1000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>./images/paintings_available/amet-bread-circus.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Checking</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3333333333</v>
-      </c>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -452,34 +644,1248 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Bread &amp; Circus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Infante</t>
+          <t>acrylic / paper</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>kuva5008@gmail.com</t>
+          <t>50 x 70 cm</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>626117235</v>
+        <v>250</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>./images/paintings_available/amet-idolatry.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Checking the shop</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1689912425716</v>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>300</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-africa.png</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>African mask</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>scupture</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>250</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-african_mask.png</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Under the sun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>400</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-under_the_sun.png</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Captivity</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>acrylic / canvas</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>500</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-captivity.png</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Escape</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>400</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-escape.png</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>God</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>55 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>400</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-god.png</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Graffiti at Juanma</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>graffiti</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>400</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-graffiti_juanma.png</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Heaven is mine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>acrylic / canvas</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>57 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>400</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-heaven_is_mine.png</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hunger</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>acrylic / canvas</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>58 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>250</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-hunger.png</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Keep talking</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>acrylic / canvas</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>59 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>250</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-keep_talking.png</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Poster</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>60 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>250</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-poster.png</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Roles switched</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>acrylic / canvas</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>61 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>600</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-roles_switched.png</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Selfportrait red</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>62 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>600</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-selfportrait_red.png</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Selfportrait spring</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>63 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>600</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-selfportrait_spring.png</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Selfportrait blue</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>64 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>600</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-selfportrait_blue.png</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Startling</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>acrylic/paper</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>65 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>600</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>./images/art_sold/amet-startling.png</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2018-12-31 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>The Crown is mine (I)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>acrylic/canvas</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>400</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>./images/paintings_available/amet-crown_is_mine_I.png</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The Crown is mine (II)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>acrylic/canvas</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>51 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>500</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>./images/paintings_available/amet-crown_is_mine_II.png</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fighting back</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>acrylic/canvas</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>52 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>600</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>./images/paintings_available/amet-fighting_back.png</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Immigrant</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>acrylic/canvas</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>53 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>200</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>./images/paintings_available/amet-immigrant.png</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Welcome to paradise</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>acrylic/canvas</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>54 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>300</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>./images/paintings_available/amet-welcome_to_paradise.png</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Who's right?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>acrylic/canvas</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>55 x 40 cm</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>400</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>./images/paintings_available/amet-whos_right.png</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>telephone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>registerNum</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>telephone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>reservedDate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>paintId</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>registerNum</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/Amet_data_update.xlsx
+++ b/backend/Amet_data_update.xlsx
@@ -630,13 +630,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>24-7-23</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1690239067752</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1716,7 +1722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,6 +1770,42 @@
         <is>
           <t>registerNum</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Infante</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>626117235</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>It is working, at last!</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1690239067752</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,6 +1930,45 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Idolatry</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>acrylic / canvas</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100 x 70 cm</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>./images/paintings_available/amet-bread-circus.png</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24-7-23</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1690239067752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
